--- a/Planning/Anxiety Studies Systematic Search/Systematic extraction.xlsx
+++ b/Planning/Anxiety Studies Systematic Search/Systematic extraction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza\Dropbox\Zebrafish Experiment\BIG EXPERIMENT\F1_Methods_Chapter_Analysis\Planning\Anxiety Studies Systematic Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D8BE80-60A3-4D6E-9C36-8C7813CC9D98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3034EE41-5D29-4708-B28C-7F304991704B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="132">
   <si>
     <t>authors</t>
   </si>
@@ -382,9 +382,6 @@
     <t>colour</t>
   </si>
   <si>
-    <t>capcity_L</t>
-  </si>
-  <si>
     <t>length_cm</t>
   </si>
   <si>
@@ -416,6 +413,15 @@
   </si>
   <si>
     <t>capacity_L</t>
+  </si>
+  <si>
+    <t>depth_cm</t>
+  </si>
+  <si>
+    <t>15.2 cm × 30 cm × 20 cm; 2.5 gal [9.5 L]</t>
+  </si>
+  <si>
+    <t>24.3 cm in the lower part, 27.2 cm in the upper part (in length). The diagonal side of the tank was 16 cm long and the opposite vertical side 17.2 cm high</t>
   </si>
 </sst>
 </file>
@@ -431,12 +437,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -451,8 +463,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,10 +746,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U49"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,7 +764,7 @@
     <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +790,7 @@
         <v>117</v>
       </c>
       <c r="I1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J1" t="s">
         <v>106</v>
@@ -784,37 +799,40 @@
         <v>107</v>
       </c>
       <c r="L1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" t="s">
         <v>119</v>
       </c>
-      <c r="M1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>108</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>111</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>99</v>
       </c>
-      <c r="R1" t="s">
-        <v>128</v>
-      </c>
       <c r="S1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" t="s">
         <v>101</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>103</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -834,31 +852,40 @@
         <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2">
+        <v>124</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O2">
         <v>6</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>10</v>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
       <c r="Q2">
         <v>1</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -880,38 +907,29 @@
       <c r="G3" t="s">
         <v>116</v>
       </c>
-      <c r="J3">
-        <v>15</v>
-      </c>
-      <c r="K3">
-        <v>7</v>
-      </c>
-      <c r="L3">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>122</v>
-      </c>
-      <c r="N3">
+      <c r="N3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3">
         <v>6</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>10</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="R3">
+      <c r="Q3">
         <v>1</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -922,30 +940,36 @@
         <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
         <v>105</v>
       </c>
       <c r="G4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
         <v>125</v>
       </c>
-      <c r="M4" t="s">
-        <v>126</v>
-      </c>
-      <c r="N4">
+      <c r="O4">
         <v>6</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>18</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="R4">
+      <c r="Q4">
         <v>1</v>
       </c>
       <c r="S4">
@@ -957,8 +981,11 @@
       <c r="U4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -969,7 +996,7 @@
         <v>2013</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
         <v>114</v>
@@ -978,18 +1005,18 @@
         <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M5" t="s">
-        <v>127</v>
-      </c>
-      <c r="N5">
+        <v>124</v>
+      </c>
+      <c r="N5" t="s">
+        <v>126</v>
+      </c>
+      <c r="O5">
         <v>2</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>30</v>
       </c>
-      <c r="R5">
+      <c r="Q5">
         <v>1</v>
       </c>
       <c r="S5">
@@ -1001,8 +1028,11 @@
       <c r="U5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1012,8 +1042,35 @@
       <c r="C6">
         <v>2014</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6">
+        <v>9.5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>130</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1023,8 +1080,35 @@
       <c r="C7">
         <v>2019</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" t="s">
+        <v>131</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1035,7 +1119,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1046,7 +1130,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1057,7 +1141,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1068,7 +1152,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1079,7 +1163,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1090,7 +1174,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1101,7 +1185,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1112,7 +1196,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1488,20 +1572,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1631A3F4-A572-4A4B-A82F-2C4FF4247618}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +1612,7 @@
         <v>117</v>
       </c>
       <c r="I1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J1" t="s">
         <v>106</v>
@@ -1536,37 +1621,40 @@
         <v>107</v>
       </c>
       <c r="L1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" t="s">
         <v>119</v>
       </c>
-      <c r="M1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>108</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>111</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>99</v>
       </c>
-      <c r="R1" t="s">
-        <v>128</v>
-      </c>
       <c r="S1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" t="s">
         <v>101</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>103</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1586,31 +1674,40 @@
         <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2">
+        <v>124</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O2">
         <v>6</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>10</v>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
       <c r="Q2">
         <v>1</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1632,29 +1729,29 @@
       <c r="G3" t="s">
         <v>116</v>
       </c>
-      <c r="M3" t="s">
-        <v>122</v>
-      </c>
-      <c r="N3">
+      <c r="N3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3">
         <v>6</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>10</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="R3">
+      <c r="Q3">
         <v>1</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1665,30 +1762,36 @@
         <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
         <v>105</v>
       </c>
       <c r="G4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
         <v>125</v>
       </c>
-      <c r="M4" t="s">
-        <v>126</v>
-      </c>
-      <c r="N4">
+      <c r="O4">
         <v>6</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>18</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="R4">
+      <c r="Q4">
         <v>1</v>
       </c>
       <c r="S4">
@@ -1700,8 +1803,11 @@
       <c r="U4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1712,7 +1818,7 @@
         <v>2013</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
         <v>114</v>
@@ -1721,21 +1827,18 @@
         <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M5" t="s">
-        <v>127</v>
-      </c>
-      <c r="N5">
+        <v>124</v>
+      </c>
+      <c r="N5" t="s">
+        <v>126</v>
+      </c>
+      <c r="O5">
         <v>2</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>30</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="R5">
+      <c r="Q5">
         <v>1</v>
       </c>
       <c r="S5">
@@ -1745,6 +1848,9 @@
         <v>1</v>
       </c>
       <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
         <v>1</v>
       </c>
     </row>

--- a/Planning/Anxiety Studies Systematic Search/Systematic extraction.xlsx
+++ b/Planning/Anxiety Studies Systematic Search/Systematic extraction.xlsx
@@ -8,22 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza\Dropbox\Zebrafish Experiment\BIG EXPERIMENT\F1_Methods_Chapter_Analysis\Planning\Anxiety Studies Systematic Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C417D0BC-B1C8-40EF-ACDC-A9F724C04AC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5FB088-10B0-41FF-8D6A-E66064468A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Plots" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Plots!$A$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Plots!$B$1:$Q$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Plots!$B$2:$Q$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Plots!$A$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Plots!$B$1:$Q$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Plots!$B$2:$Q$2</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -720,7 +712,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="1"/>
         <c:ser>
@@ -753,6 +745,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-31FF-4C7E-8504-FE7C50928EB4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -769,6 +766,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-31FF-4C7E-8504-FE7C50928EB4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -785,6 +787,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-31FF-4C7E-8504-FE7C50928EB4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -801,6 +808,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-31FF-4C7E-8504-FE7C50928EB4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -817,6 +829,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-31FF-4C7E-8504-FE7C50928EB4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -833,6 +850,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-31FF-4C7E-8504-FE7C50928EB4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -851,6 +873,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-31FF-4C7E-8504-FE7C50928EB4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -869,6 +896,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-31FF-4C7E-8504-FE7C50928EB4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -887,6 +919,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-31FF-4C7E-8504-FE7C50928EB4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -905,6 +942,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-31FF-4C7E-8504-FE7C50928EB4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -923,6 +965,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-31FF-4C7E-8504-FE7C50928EB4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -941,6 +988,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-31FF-4C7E-8504-FE7C50928EB4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -960,6 +1012,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-31FF-4C7E-8504-FE7C50928EB4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -979,6 +1036,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-31FF-4C7E-8504-FE7C50928EB4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -998,6 +1060,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-31FF-4C7E-8504-FE7C50928EB4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -1017,6 +1084,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-31FF-4C7E-8504-FE7C50928EB4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1155,7 +1227,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1206,7 +1278,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1224,7 +1296,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1256,7 +1328,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1472,6 +1544,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-24B2-4F19-8715-87F974FE06E7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1486,6 +1563,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-24B2-4F19-8715-87F974FE06E7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1500,6 +1582,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-24B2-4F19-8715-87F974FE06E7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1514,6 +1601,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-24B2-4F19-8715-87F974FE06E7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3239,30 +3331,30 @@
       <selection pane="bottomLeft" activeCell="I53" sqref="I53:M53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="16" width="11.5703125" customWidth="1"/>
-    <col min="17" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="54.54296875" customWidth="1"/>
+    <col min="3" max="3" width="5.54296875"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="16" width="11.54296875" customWidth="1"/>
+    <col min="17" max="18" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3366,7 +3458,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3425,7 +3517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3478,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3534,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -3578,7 +3670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -3634,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>156</v>
       </c>
@@ -3678,7 +3770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3725,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3772,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3813,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3869,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3925,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3972,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -4028,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4075,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -4131,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4190,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -4255,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -4302,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -4364,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -4417,7 +4509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -4485,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -4547,7 +4639,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -4600,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -4653,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -4694,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -4747,7 +4839,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -4800,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -4850,7 +4942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -4903,7 +4995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -4956,7 +5048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -5015,7 +5107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -5071,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -5127,7 +5219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -5156,7 +5248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -5203,7 +5295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -5253,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -5285,7 +5377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -5335,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>167</v>
       </c>
@@ -5397,7 +5489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -5459,7 +5551,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -5518,7 +5610,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -5580,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -5636,7 +5728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>152</v>
       </c>
@@ -5692,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -5727,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -5786,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>165</v>
       </c>
@@ -5848,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -5895,7 +5987,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -5954,7 +6046,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -6010,12 +6102,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="I53">
-        <f t="shared" ref="I53:J53" si="0">AVERAGE(I2:I51)</f>
+        <f t="shared" ref="I53" si="0">AVERAGE(I2:I51)</f>
         <v>10.780000000000001</v>
       </c>
       <c r="K53">
@@ -6031,71 +6123,71 @@
         <v>27.838461538461537</v>
       </c>
       <c r="R53">
-        <f>SUM(R2:R51)</f>
+        <f t="shared" ref="R53:AG53" si="2">SUM(R2:R51)</f>
         <v>29</v>
       </c>
       <c r="S53">
-        <f>SUM(S2:S51)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="T53">
-        <f>SUM(T2:T51)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="U53">
-        <f>SUM(U2:U51)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="V53">
-        <f>SUM(V2:V51)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="W53">
-        <f>SUM(W2:W51)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="X53">
-        <f>SUM(X2:X51)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Y53">
-        <f>SUM(Y2:Y51)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Z53">
-        <f>SUM(Z2:Z51)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AA53">
-        <f>SUM(AA2:AA51)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="AB53">
-        <f>SUM(AB2:AB51)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AC53">
-        <f>SUM(AC2:AC51)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="AD53">
-        <f>SUM(AD2:AD51)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="AE53">
-        <f>SUM(AE2:AE51)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AF53">
-        <f>SUM(AF2:AF51)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AG53">
-        <f>SUM(AG2:AG51)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="I54" s="3" t="s">
         <v>169</v>
       </c>
@@ -6129,9 +6221,9 @@
       <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -6193,7 +6285,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>170</v>
       </c>
@@ -6261,7 +6353,7 @@
         <v>27.838461538461537</v>
       </c>
     </row>
-    <row r="22" spans="25:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="25:25" x14ac:dyDescent="0.35">
       <c r="Y22" t="s">
         <v>171</v>
       </c>
